--- a/训练中心创客交叉融合空间建设/admin/总理接待准备工作财物记录.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/总理接待准备工作财物记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>付志勇</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>创新二层平面地图</t>
+  </si>
+  <si>
+    <t>红色老式电话机</t>
   </si>
 </sst>
 </file>
@@ -561,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1021,9 +1024,18 @@
       </c>
     </row>
     <row r="45" spans="2:6">
+      <c r="C45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="3">
+        <v>136</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
       <c r="F45" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="2:6">

--- a/训练中心创客交叉融合空间建设/admin/总理接待准备工作财物记录.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/总理接待准备工作财物记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>付志勇</t>
   </si>
@@ -139,6 +139,42 @@
   </si>
   <si>
     <t>红色老式电话机</t>
+  </si>
+  <si>
+    <t>高增益无线网卡TP-LINK</t>
+  </si>
+  <si>
+    <t>万能空调遥控器</t>
+  </si>
+  <si>
+    <r>
+      <t>802.11ac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双频无线路由器</t>
+    </r>
+  </si>
+  <si>
+    <t>磁钉等</t>
+  </si>
+  <si>
+    <t>板擦等</t>
+  </si>
+  <si>
+    <t>白板笔、报事贴等</t>
+  </si>
+  <si>
+    <t>网络摄像机</t>
+  </si>
+  <si>
+    <t>平板电脑</t>
   </si>
 </sst>
 </file>
@@ -205,9 +241,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -223,16 +261,18 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="12">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J56"/>
+  <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -605,7 +645,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F56" si="0">D3*E3</f>
+        <f t="shared" ref="F3:F64" si="0">D3*E3</f>
         <v>0</v>
       </c>
     </row>
@@ -843,7 +883,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="3:6">
       <c r="C33" s="1" t="s">
         <v>19</v>
       </c>
@@ -858,7 +898,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="3:6">
       <c r="C34" s="1" t="s">
         <v>20</v>
       </c>
@@ -873,7 +913,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="3:6">
       <c r="C35" s="1" t="s">
         <v>21</v>
       </c>
@@ -888,7 +928,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="3:6">
       <c r="C36" s="1" t="s">
         <v>22</v>
       </c>
@@ -903,7 +943,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="3:6">
       <c r="C37" s="1" t="s">
         <v>23</v>
       </c>
@@ -918,7 +958,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="3:6">
       <c r="C38" s="1" t="s">
         <v>24</v>
       </c>
@@ -933,7 +973,7 @@
         <v>84.9</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="3:6">
       <c r="C39" s="1" t="s">
         <v>24</v>
       </c>
@@ -948,7 +988,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="3:6">
       <c r="C40" s="1" t="s">
         <v>25</v>
       </c>
@@ -963,7 +1003,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="3:6">
       <c r="C41" s="1" t="s">
         <v>26</v>
       </c>
@@ -978,7 +1018,7 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="3:6">
       <c r="C42" s="1" t="s">
         <v>27</v>
       </c>
@@ -993,7 +1033,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="3:6">
       <c r="C43" s="1" t="s">
         <v>28</v>
       </c>
@@ -1008,7 +1048,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="3:6">
       <c r="C44" s="1" t="s">
         <v>29</v>
       </c>
@@ -1023,7 +1063,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="3:6">
       <c r="C45" s="1" t="s">
         <v>39</v>
       </c>
@@ -1038,98 +1078,218 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="3:6">
+      <c r="C46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="3">
+        <v>139</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
       <c r="F46" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="C47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="3">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="3">
+        <v>439</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="0"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="C49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="3">
+        <v>653</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="0"/>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="C50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="3">
+        <v>114.5</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="0"/>
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="C51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="3">
+        <v>290</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="C52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="3">
+        <v>610</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="0"/>
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="C53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1798</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="0"/>
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="F54" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="C48" s="1" t="s">
+      <c r="F55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="C56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F48" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6">
-      <c r="C49" s="1" t="s">
+      <c r="F56" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="C57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F49" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6">
-      <c r="C50" s="1" t="s">
+      <c r="F57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="C58" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E50">
+      <c r="E58">
         <v>12</v>
       </c>
-      <c r="F50" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6">
-      <c r="C51" s="1" t="s">
+      <c r="F58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="C59" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E51">
+      <c r="E59">
         <v>12</v>
       </c>
-      <c r="F51" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6">
-      <c r="C52" s="1" t="s">
+      <c r="F59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="C60" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6">
-      <c r="C53" s="1" t="s">
+      <c r="F60" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="C61" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6">
-      <c r="F54" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6">
-      <c r="F55" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6">
-      <c r="F56" s="3">
+      <c r="F61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="F62" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="F63" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="F64" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
